--- a/Report/Booking Analysis Report.xlsx
+++ b/Report/Booking Analysis Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prafull Wahatule\Desktop\Booking Analysis\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prafull Wahatule\Desktop\BI Hotel Booking Analysis\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88CAD62-4A48-4A62-B440-9C45DF1D5AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0368E389-ACF1-4B5A-83EF-5483069C43F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{982E9D42-EB19-4268-B625-6FDCA404ACAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{982E9D42-EB19-4268-B625-6FDCA404ACAD}"/>
   </bookViews>
   <sheets>
     <sheet name="KYD-Data Cleaning" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="254">
   <si>
     <t>Rows After</t>
   </si>
@@ -936,12 +936,18 @@
   <si>
     <t>Transformation</t>
   </si>
+  <si>
+    <t>Data Cleaning</t>
+  </si>
+  <si>
+    <t>Remove error after ub titak geust column</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,13 +966,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1093,8 +1092,23 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1143,6 +1157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1171,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1205,39 +1225,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,39 +1261,48 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1593,15 +1617,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5111B20C-65EF-4F6C-8A64-1CB456B3BAB0}">
-  <dimension ref="B2:P14"/>
+  <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.109375" customWidth="1"/>
@@ -1611,121 +1635,66 @@
     <col min="11" max="11" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.6">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:16" ht="23.4">
+      <c r="D2" s="50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.6">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="13.8" customHeight="1">
-      <c r="B3" s="6">
+    <row r="5" spans="2:16" ht="13.8" customHeight="1">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="8" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="15.6">
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>119390</v>
-      </c>
-      <c r="G4" s="10">
-        <v>119386</v>
-      </c>
-      <c r="H4" s="11">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>32</v>
-      </c>
-      <c r="J4" s="2">
-        <v>32</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="15.6">
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>119386</v>
-      </c>
-      <c r="G5" s="10">
-        <v>119386</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2">
-        <v>32</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.6">
       <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="16">
-        <v>3</v>
+      <c r="E6" s="53">
+        <v>1</v>
       </c>
       <c r="F6" s="10">
+        <v>119390</v>
+      </c>
+      <c r="G6" s="10">
         <v>119386</v>
       </c>
-      <c r="G6" s="10">
-        <v>87392</v>
-      </c>
-      <c r="H6" s="12">
-        <v>31994</v>
+      <c r="H6" s="11">
+        <v>4</v>
       </c>
       <c r="I6" s="2">
         <v>32</v>
@@ -1739,20 +1708,20 @@
     </row>
     <row r="7" spans="2:16" ht="15.6">
       <c r="B7" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="16">
-        <v>4</v>
+      <c r="E7" s="53">
+        <v>2</v>
       </c>
       <c r="F7" s="10">
-        <v>87392</v>
+        <v>119386</v>
       </c>
       <c r="G7" s="10">
-        <v>87392</v>
+        <v>119386</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -1761,67 +1730,64 @@
         <v>32</v>
       </c>
       <c r="J7" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.6">
       <c r="B8" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="16">
-        <v>5</v>
+      <c r="E8" s="53">
+        <v>3</v>
       </c>
       <c r="F8" s="10">
-        <f>G7</f>
+        <v>119386</v>
+      </c>
+      <c r="G8" s="10">
         <v>87392</v>
       </c>
-      <c r="G8" s="10">
-        <v>87220</v>
-      </c>
       <c r="H8" s="12">
-        <f>F8-G8</f>
-        <v>172</v>
+        <v>31994</v>
       </c>
       <c r="I8" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.6">
       <c r="B9" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D9" s="14"/>
-      <c r="E9" s="16">
-        <v>6</v>
-      </c>
-      <c r="F9" s="17">
-        <f>G8</f>
-        <v>87220</v>
+      <c r="E9" s="53">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10">
+        <v>87392</v>
       </c>
       <c r="G9" s="10">
-        <v>87220</v>
+        <v>87392</v>
       </c>
       <c r="H9" s="11">
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2">
         <v>33</v>
@@ -1832,28 +1798,31 @@
     </row>
     <row r="10" spans="2:16" ht="15.6">
       <c r="B10" s="6">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="16">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="53">
+        <v>5</v>
       </c>
       <c r="F10" s="10">
+        <f>G9</f>
+        <v>87392</v>
+      </c>
+      <c r="G10" s="10">
         <v>87220</v>
       </c>
-      <c r="G10" s="17">
-        <v>87220</v>
-      </c>
       <c r="H10" s="12">
-        <v>0</v>
+        <f>F10-G10</f>
+        <v>172</v>
       </c>
       <c r="I10" s="2">
         <v>33</v>
       </c>
       <c r="J10" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10" s="13">
         <v>1</v>
@@ -1861,30 +1830,30 @@
     </row>
     <row r="11" spans="2:16" ht="15.6">
       <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="16">
-        <v>8</v>
-      </c>
-      <c r="F11" s="17">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="53">
+        <v>6</v>
+      </c>
+      <c r="F11" s="54">
         <f>G10</f>
         <v>87220</v>
       </c>
       <c r="G11" s="10">
         <v>87220</v>
       </c>
-      <c r="H11" s="18">
-        <f>F11-G11</f>
+      <c r="H11" s="11">
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K11" s="13">
         <v>1</v>
@@ -1892,30 +1861,28 @@
     </row>
     <row r="12" spans="2:16" ht="15.6">
       <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="16">
-        <v>9</v>
-      </c>
-      <c r="F12" s="17">
-        <f>G11</f>
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="53">
+        <v>7</v>
+      </c>
+      <c r="F12" s="10">
         <v>87220</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="54">
         <v>87220</v>
       </c>
-      <c r="H12" s="18">
-        <f>F12-G12</f>
+      <c r="H12" s="12">
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K12" s="13">
         <v>1</v>
@@ -1923,65 +1890,158 @@
     </row>
     <row r="13" spans="2:16" ht="15.6">
       <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="16">
-        <v>10</v>
-      </c>
-      <c r="F13" s="17">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="53">
+        <v>8</v>
+      </c>
+      <c r="F13" s="54">
         <f>G12</f>
         <v>87220</v>
       </c>
       <c r="G13" s="10">
-        <v>86605</v>
-      </c>
-      <c r="H13" s="18">
+        <v>87220</v>
+      </c>
+      <c r="H13" s="55">
         <f>F13-G13</f>
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J13" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.6">
       <c r="B14" s="6">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="16">
-        <v>11</v>
-      </c>
-      <c r="F14" s="17">
+      <c r="C14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="53">
+        <v>9</v>
+      </c>
+      <c r="F14" s="54">
         <f>G13</f>
-        <v>86605</v>
+        <v>87220</v>
       </c>
       <c r="G14" s="10">
-        <v>86605</v>
-      </c>
-      <c r="H14" s="19">
+        <v>87220</v>
+      </c>
+      <c r="H14" s="55">
+        <f>F14-G14</f>
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="2">
         <v>28</v>
       </c>
       <c r="K14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.6">
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="53">
+        <v>10</v>
+      </c>
+      <c r="F15" s="54">
+        <f>G14</f>
+        <v>87220</v>
+      </c>
+      <c r="G15" s="10">
+        <v>86605</v>
+      </c>
+      <c r="H15" s="55">
+        <f>F15-G15</f>
+        <v>615</v>
+      </c>
+      <c r="I15" s="2">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2">
+        <v>28</v>
+      </c>
+      <c r="K15" s="13">
         <v>0</v>
       </c>
-      <c r="P14" s="7"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.6">
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="53">
+        <v>11</v>
+      </c>
+      <c r="F16" s="54">
+        <f>G15</f>
+        <v>86605</v>
+      </c>
+      <c r="G16" s="10">
+        <v>86605</v>
+      </c>
+      <c r="H16" s="56">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2">
+        <v>28</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.6">
+      <c r="B17" s="51">
+        <v>12</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="53">
+        <v>12</v>
+      </c>
+      <c r="F17" s="54">
+        <f>G16</f>
+        <v>86605</v>
+      </c>
+      <c r="G17" s="6">
+        <v>84755</v>
+      </c>
+      <c r="H17" s="54">
+        <f>F17-G17</f>
+        <v>1850</v>
+      </c>
+      <c r="I17" s="6">
+        <v>28</v>
+      </c>
+      <c r="J17" s="6">
+        <v>28</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1992,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F8B0D9-F8C0-4197-BF3C-EC40092398E1}">
   <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="A11" zoomScale="71" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2006,10 +2066,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15.6">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="43" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2043,10 +2103,10 @@
       <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="49">
         <v>1</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="49" t="s">
         <v>93</v>
       </c>
       <c r="H5" s="6"/>
@@ -2061,10 +2121,10 @@
       <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="49">
         <v>2</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="49" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="6"/>
@@ -2079,10 +2139,10 @@
       <c r="D7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="49">
         <v>3</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="49" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="6"/>
@@ -2097,10 +2157,10 @@
       <c r="D8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="49">
         <v>4</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="49" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="6"/>
@@ -2115,10 +2175,10 @@
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="49">
         <v>5</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="49" t="s">
         <v>94</v>
       </c>
       <c r="H9" s="6"/>
@@ -2133,10 +2193,10 @@
       <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="49">
         <v>6</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="49" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="6"/>
@@ -2151,10 +2211,10 @@
       <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="49">
         <v>7</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="49" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="6"/>
@@ -2169,10 +2229,10 @@
       <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="49">
         <v>8</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="49" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="6"/>
@@ -2187,10 +2247,10 @@
       <c r="D13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="49">
         <v>9</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="49" t="s">
         <v>95</v>
       </c>
       <c r="H13" s="6"/>
@@ -2205,10 +2265,10 @@
       <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="49">
         <v>10</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="49" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="6"/>
@@ -2223,10 +2283,10 @@
       <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="49">
         <v>11</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="49" t="s">
         <v>87</v>
       </c>
       <c r="H15" s="6"/>
@@ -2241,10 +2301,10 @@
       <c r="D16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="49">
         <v>12</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="49" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="6"/>
@@ -2259,10 +2319,10 @@
       <c r="D17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="49">
         <v>13</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="49" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="6"/>
@@ -2277,10 +2337,10 @@
       <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="49">
         <v>14</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="49" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="6"/>
@@ -2295,10 +2355,10 @@
       <c r="D19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="49">
         <v>15</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="49" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="6"/>
@@ -2313,10 +2373,10 @@
       <c r="D20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="49">
         <v>16</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="49" t="s">
         <v>27</v>
       </c>
       <c r="H20" s="6"/>
@@ -2331,10 +2391,10 @@
       <c r="D21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="49">
         <v>17</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="49" t="s">
         <v>28</v>
       </c>
       <c r="H21" s="6"/>
@@ -2349,10 +2409,10 @@
       <c r="D22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="49">
         <v>18</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="49" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="6"/>
@@ -2367,10 +2427,10 @@
       <c r="D23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="49">
         <v>19</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="49" t="s">
         <v>30</v>
       </c>
       <c r="H23" s="6"/>
@@ -2385,10 +2445,10 @@
       <c r="D24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="49">
         <v>20</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="49" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="6"/>
@@ -2403,10 +2463,10 @@
       <c r="D25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="49">
         <v>21</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="49" t="s">
         <v>32</v>
       </c>
       <c r="H25" s="6"/>
@@ -2421,10 +2481,10 @@
       <c r="D26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="49">
         <v>22</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="49" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="6"/>
@@ -2439,10 +2499,10 @@
       <c r="D27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="49">
         <v>23</v>
       </c>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="49" t="s">
         <v>34</v>
       </c>
       <c r="H27" s="6"/>
@@ -2457,10 +2517,10 @@
       <c r="D28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="49">
         <v>24</v>
       </c>
-      <c r="G28" s="54" t="s">
+      <c r="G28" s="49" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="6"/>
@@ -2475,10 +2535,10 @@
       <c r="D29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="49">
         <v>25</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="49" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="6"/>
@@ -2493,10 +2553,10 @@
       <c r="D30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="49">
         <v>26</v>
       </c>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="49" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="6"/>
@@ -2511,10 +2571,10 @@
       <c r="D31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="49">
         <v>27</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="49" t="s">
         <v>41</v>
       </c>
       <c r="H31" s="6"/>
@@ -2529,10 +2589,10 @@
       <c r="D32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="54">
+      <c r="F32" s="49">
         <v>28</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="49" t="s">
         <v>42</v>
       </c>
       <c r="H32" s="6"/>
@@ -2612,23 +2672,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.6">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="43" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.6">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="43" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.6">
-      <c r="B5" s="54">
+      <c r="B5" s="49">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2639,7 +2699,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.6">
-      <c r="B6" s="54">
+      <c r="B6" s="49">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2650,7 +2710,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.6">
-      <c r="B7" s="54">
+      <c r="B7" s="49">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2661,7 +2721,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.6">
-      <c r="B8" s="54">
+      <c r="B8" s="49">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2672,7 +2732,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.6">
-      <c r="B9" s="54">
+      <c r="B9" s="49">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2683,7 +2743,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.6">
-      <c r="B10" s="54">
+      <c r="B10" s="49">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2694,7 +2754,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.6">
-      <c r="B11" s="54">
+      <c r="B11" s="49">
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2705,7 +2765,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.6">
-      <c r="B12" s="54">
+      <c r="B12" s="49">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2716,7 +2776,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.6">
-      <c r="B13" s="54">
+      <c r="B13" s="49">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2727,7 +2787,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.6">
-      <c r="B14" s="54">
+      <c r="B14" s="49">
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2738,7 +2798,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.6">
-      <c r="B15" s="54">
+      <c r="B15" s="49">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2757,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC310175-FF74-49CD-BEDC-3226069E4333}">
   <dimension ref="B4:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+    <sheetView zoomScale="112" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2781,69 +2841,69 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="20.399999999999999">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="15.6">
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="S6" s="37" t="s">
+      <c r="S6" s="32" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="18">
-      <c r="D7" s="41">
+      <c r="D7" s="36">
         <v>1</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="38" t="s">
         <v>112</v>
       </c>
       <c r="J7" s="6">
@@ -2852,7 +2912,7 @@
       <c r="K7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="42" t="s">
         <v>122</v>
       </c>
       <c r="M7" s="6" t="s">
@@ -2870,19 +2930,19 @@
       <c r="S7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="21"/>
+      <c r="U7" s="16"/>
     </row>
     <row r="8" spans="2:21" ht="18">
-      <c r="D8" s="41">
+      <c r="D8" s="36">
         <v>2</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="36" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="38" t="s">
         <v>113</v>
       </c>
       <c r="J8" s="6">
@@ -2891,7 +2951,7 @@
       <c r="K8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="33" t="s">
         <v>123</v>
       </c>
       <c r="M8" s="6" t="s">
@@ -2909,19 +2969,19 @@
       <c r="S8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="21"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="2:21" ht="18">
-      <c r="D9" s="41">
+      <c r="D9" s="36">
         <v>3</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="36" t="s">
         <v>102</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="38" t="s">
         <v>114</v>
       </c>
       <c r="J9" s="6">
@@ -2930,7 +2990,7 @@
       <c r="K9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="42" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="6" t="s">
@@ -2948,19 +3008,19 @@
       <c r="S9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="21"/>
+      <c r="U9" s="16"/>
     </row>
     <row r="10" spans="2:21" ht="18">
-      <c r="D10" s="41">
+      <c r="D10" s="36">
         <v>4</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="36" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="38" t="s">
         <v>115</v>
       </c>
       <c r="J10" s="6">
@@ -2969,7 +3029,7 @@
       <c r="K10" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="33" t="s">
         <v>137</v>
       </c>
       <c r="M10" s="6" t="s">
@@ -2978,96 +3038,96 @@
       <c r="N10" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="U10" s="21"/>
+      <c r="U10" s="16"/>
     </row>
     <row r="11" spans="2:21" ht="18">
-      <c r="D11" s="41">
+      <c r="D11" s="36">
         <v>5</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="37" t="s">
         <v>104</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="38" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="15.6">
-      <c r="D12" s="41">
+      <c r="D12" s="36">
         <v>6</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="36" t="s">
         <v>110</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="38" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:21">
-      <c r="F13" s="23"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="G14" s="22"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="2:21" ht="20.399999999999999">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="I15" s="29" t="s">
+      <c r="G15" s="17"/>
+      <c r="I15" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:21">
-      <c r="G16" s="22"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:23" ht="15.6">
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="L17" s="49" t="s">
+      <c r="L17" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M17" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="37" t="s">
+      <c r="R17" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="S17" s="37" t="s">
+      <c r="S17" s="32" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3075,13 +3135,13 @@
       <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="41" t="s">
         <v>138</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="39" t="s">
         <v>153</v>
       </c>
       <c r="J18" s="6">
@@ -3093,7 +3153,7 @@
       <c r="L18" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="42" t="s">
         <v>129</v>
       </c>
       <c r="N18" s="6" t="s">
@@ -3102,10 +3162,10 @@
       <c r="Q18" s="6">
         <v>1</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="S18" s="38" t="s">
+      <c r="S18" s="33" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3113,13 +3173,13 @@
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="41" t="s">
         <v>139</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="40" t="s">
         <v>151</v>
       </c>
       <c r="J19" s="6">
@@ -3131,7 +3191,7 @@
       <c r="L19" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="42" t="s">
         <v>143</v>
       </c>
       <c r="N19" s="6" t="s">
@@ -3140,10 +3200,10 @@
       <c r="Q19" s="6">
         <v>2</v>
       </c>
-      <c r="R19" s="38" t="s">
+      <c r="R19" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="S19" s="38" t="s">
+      <c r="S19" s="33" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3151,13 +3211,13 @@
       <c r="D20" s="6">
         <v>3</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="41" t="s">
         <v>140</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="39" t="s">
         <v>152</v>
       </c>
       <c r="J20" s="6">
@@ -3169,26 +3229,26 @@
       <c r="L20" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="M20" s="47" t="s">
+      <c r="M20" s="42" t="s">
         <v>125</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
     </row>
     <row r="21" spans="2:23" ht="18">
       <c r="D21" s="6">
         <v>4</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="41" t="s">
         <v>147</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="39" t="s">
         <v>154</v>
       </c>
       <c r="J21" s="6">
@@ -3200,7 +3260,7 @@
       <c r="L21" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="42" t="s">
         <v>144</v>
       </c>
       <c r="N21" s="6" t="s">
@@ -3208,7 +3268,7 @@
       </c>
     </row>
     <row r="22" spans="2:23" ht="18">
-      <c r="G22" s="22"/>
+      <c r="G22" s="17"/>
       <c r="J22" s="6">
         <v>5</v>
       </c>
@@ -3218,7 +3278,7 @@
       <c r="L22" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="42" t="s">
         <v>149</v>
       </c>
       <c r="N22" s="6" t="s">
@@ -3226,61 +3286,61 @@
       </c>
     </row>
     <row r="23" spans="2:23">
-      <c r="G23" s="22"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="2:23">
-      <c r="G24" s="22"/>
+      <c r="G24" s="17"/>
     </row>
     <row r="25" spans="2:23" ht="20.399999999999999">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="I25" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="P25" s="30" t="s">
+      <c r="P25" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="18">
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="L27" s="50" t="s">
+      <c r="L27" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="N27" s="50" t="s">
+      <c r="N27" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="Q27" s="37" t="s">
+      <c r="O27" s="20"/>
+      <c r="Q27" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R27" s="37" t="s">
+      <c r="R27" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="S27" s="37" t="s">
+      <c r="S27" s="32" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3295,22 +3355,22 @@
         <v>176</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="J28" s="51">
+      <c r="J28" s="46">
         <v>1</v>
       </c>
-      <c r="K28" s="51" t="s">
+      <c r="K28" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="L28" s="51" t="s">
+      <c r="L28" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="M28" s="51" t="s">
+      <c r="M28" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="N28" s="51" t="s">
+      <c r="N28" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="O28" s="26"/>
+      <c r="O28" s="21"/>
       <c r="Q28" s="6">
         <v>3</v>
       </c>
@@ -3320,7 +3380,7 @@
       <c r="S28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W28" s="21"/>
+      <c r="W28" s="16"/>
     </row>
     <row r="29" spans="2:23" ht="18">
       <c r="D29" s="6">
@@ -3333,22 +3393,22 @@
         <v>177</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="J29" s="51">
+      <c r="J29" s="46">
         <v>2</v>
       </c>
-      <c r="K29" s="51" t="s">
+      <c r="K29" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="L29" s="51" t="s">
+      <c r="L29" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="M29" s="51" t="s">
+      <c r="M29" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="N29" s="51" t="s">
+      <c r="N29" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="O29" s="26"/>
+      <c r="O29" s="21"/>
       <c r="Q29" s="6">
         <v>4</v>
       </c>
@@ -3358,7 +3418,7 @@
       <c r="S29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="W29" s="21"/>
+      <c r="W29" s="16"/>
     </row>
     <row r="30" spans="2:23" ht="18">
       <c r="D30" s="6">
@@ -3371,23 +3431,23 @@
         <v>178</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="J30" s="51">
+      <c r="J30" s="46">
         <v>3</v>
       </c>
-      <c r="K30" s="51" t="s">
+      <c r="K30" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="L30" s="51" t="s">
+      <c r="L30" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="M30" s="51" t="s">
+      <c r="M30" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="N30" s="51" t="s">
+      <c r="N30" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="W30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="W30" s="16"/>
     </row>
     <row r="31" spans="2:23" ht="18">
       <c r="D31" s="6">
@@ -3400,23 +3460,23 @@
         <v>179</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="J31" s="51">
+      <c r="J31" s="46">
         <v>4</v>
       </c>
-      <c r="K31" s="51" t="s">
+      <c r="K31" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="L31" s="51" t="s">
+      <c r="L31" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="M31" s="51" t="s">
+      <c r="M31" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="N31" s="51" t="s">
+      <c r="N31" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="O31" s="26"/>
-      <c r="W31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="W31" s="16"/>
     </row>
     <row r="32" spans="2:23" ht="18">
       <c r="D32" s="6">
@@ -3429,69 +3489,69 @@
         <v>180</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="J32" s="51">
+      <c r="J32" s="46">
         <v>5</v>
       </c>
-      <c r="K32" s="51" t="s">
+      <c r="K32" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="L32" s="51" t="s">
+      <c r="L32" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="M32" s="51" t="s">
+      <c r="M32" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="N32" s="51" t="s">
+      <c r="N32" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="O32" s="26"/>
+      <c r="O32" s="21"/>
     </row>
     <row r="33" spans="2:19" ht="18">
-      <c r="J33" s="51">
+      <c r="J33" s="46">
         <v>6</v>
       </c>
-      <c r="K33" s="51" t="s">
+      <c r="K33" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="L33" s="51" t="s">
+      <c r="L33" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="M33" s="52" t="s">
+      <c r="M33" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="N33" s="51" t="s">
+      <c r="N33" s="46" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="34" spans="2:19">
-      <c r="M34" s="26"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="36" spans="2:19" ht="21.6">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="P36" s="30" t="s">
+      <c r="P36" s="25" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="38" spans="2:19" ht="15.6">
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" s="29" t="s">
         <v>106</v>
       </c>
       <c r="J38" s="4" t="s">
@@ -3509,13 +3569,13 @@
       <c r="N38" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="Q38" s="37" t="s">
+      <c r="Q38" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R38" s="37" t="s">
+      <c r="R38" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="S38" s="37" t="s">
+      <c r="S38" s="32" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3529,7 +3589,7 @@
       <c r="F39" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="48" t="s">
         <v>196</v>
       </c>
       <c r="J39" s="2">
@@ -3538,7 +3598,7 @@
       <c r="K39" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L39" s="32" t="s">
+      <c r="L39" s="27" t="s">
         <v>207</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -3567,7 +3627,7 @@
       <c r="F40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G40" s="53" t="s">
+      <c r="G40" s="48" t="s">
         <v>197</v>
       </c>
       <c r="J40" s="2">
@@ -3576,7 +3636,7 @@
       <c r="K40" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L40" s="32" t="s">
+      <c r="L40" s="27" t="s">
         <v>208</v>
       </c>
       <c r="M40" s="2" t="s">
@@ -3605,7 +3665,7 @@
       <c r="F41" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="48" t="s">
         <v>198</v>
       </c>
       <c r="J41" s="2">
@@ -3614,7 +3674,7 @@
       <c r="K41" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L41" s="32" t="s">
+      <c r="L41" s="27" t="s">
         <v>209</v>
       </c>
       <c r="M41" s="2" t="s">
@@ -3640,7 +3700,7 @@
       <c r="K42" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L42" s="32" t="s">
+      <c r="L42" s="27" t="s">
         <v>210</v>
       </c>
       <c r="M42" s="2" t="s">
